--- a/P&E/Xtras/Preparcial 1 (Stuff)/Pregunta7.xlsx
+++ b/P&E/Xtras/Preparcial 1 (Stuff)/Pregunta7.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\Xtras\Preparcial 1 (Stuff)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902432FE-1DA0-43F4-A1A0-3B8C7FD8E642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6194E19-0D71-4466-8697-6BE2D23CFB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3DD7343-0950-454A-9D4E-D0A5D4A4D005}"/>
+    <workbookView xWindow="18555" yWindow="1695" windowWidth="9180" windowHeight="12405" activeTab="1" xr2:uid="{D3DD7343-0950-454A-9D4E-D0A5D4A4D005}"/>
   </bookViews>
   <sheets>
     <sheet name="Fórmulas" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>x</t>
   </si>
@@ -397,19 +398,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -425,6 +414,59 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -477,11 +519,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -492,23 +530,26 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -549,11 +590,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -564,23 +601,26 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -632,7 +672,6 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -652,6 +691,42 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -691,7 +766,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -702,60 +781,23 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="JetBrains Mono"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -790,13 +832,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -832,6 +867,13 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -886,8 +928,8 @@
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1381125" cy="665247"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1009,7 +1051,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -1098,8 +1140,8 @@
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2675348" cy="858505"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1361,7 +1403,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1456,8 +1498,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4251164" cy="703719"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -1956,7 +1998,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -2063,8 +2105,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1381125" cy="665247"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -2186,7 +2228,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -2270,18 +2312,252 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1381125" cy="665247"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04618DF5-A7A2-4B7E-A9F1-6BBDAFE6731B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5991225" y="4781550"/>
+              <a:ext cx="1381125" cy="665247"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="es-AR" sz="2200" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-AR" sz="2200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:subHide m:val="on"/>
+                            <m:supHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-AR" sz="2200" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub/>
+                          <m:sup/>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:nary>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04618DF5-A7A2-4B7E-A9F1-6BBDAFE6731B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5991225" y="4781550"/>
+              <a:ext cx="1381125" cy="665247"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥 ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒𝑥𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-AR" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{792966B3-A44A-4FEF-82BE-8F7204A13991}" name="Tabla2" displayName="Tabla2" ref="A1:E7" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24" headerRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{505DBF62-A478-484C-9159-89BE325608C7}" name="Tabla3" displayName="Tabla3" ref="K1:O7" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="23">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5A5749FA-4BEF-4018-A07E-AF2E2EBDD6A9}" name="---" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{EF2D5E27-9A07-46C9-AB5F-C37F9C0BD817}" name="x" dataDxfId="21" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{A4C9DE33-870A-419A-828E-008FA9CE545B}" name="Li" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{4752685B-D53C-4985-9382-4E35D7C05EE1}" name="Ls" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{02BBF4B9-B901-4325-859D-0EC2E76992FE}" name="x" dataDxfId="18" totalsRowDxfId="17">
+      <calculatedColumnFormula>AVERAGE(Tabla3[[#This Row],[Li]:[Ls]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7566CD90-C052-4064-B080-F756F5E97ED6}" name="f" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{5BD5236F-7116-46CF-88C2-74B673262788}" name="xf" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13">
+      <calculatedColumnFormula>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{792966B3-A44A-4FEF-82BE-8F7204A13991}" name="Tabla2" displayName="Tabla2" ref="A1:E7" totalsRowCount="1" headerRowDxfId="39" dataDxfId="37" totalsRowDxfId="36" headerRowBorderDxfId="38">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5A5749FA-4BEF-4018-A07E-AF2E2EBDD6A9}" name="---" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{EF2D5E27-9A07-46C9-AB5F-C37F9C0BD817}" name="x" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>AVERAGE(LEFT(Tabla2[[#This Row],[---]],2),RIGHT(Tabla2[[#This Row],[---]],2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F929D1E2-1417-4FD6-800A-D02B70B89AC9}" name="f" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{FD259287-FE65-4FF6-8CA8-E03C326FB245}" name="Faa" dataDxfId="19" totalsRowDxfId="14">
+    <tableColumn id="3" xr3:uid="{F929D1E2-1417-4FD6-800A-D02B70B89AC9}" name="f" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{FD259287-FE65-4FF6-8CA8-E03C326FB245}" name="Faa" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{53FD7381-4B83-4F67-A316-E1D4A3214303}" name="xf" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="13">
+    <tableColumn id="5" xr3:uid="{53FD7381-4B83-4F67-A316-E1D4A3214303}" name="xf" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>Tabla2[[#This Row],[x]]*Tabla2[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2289,17 +2565,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{505DBF62-A478-484C-9159-89BE325608C7}" name="Tabla3" displayName="Tabla3" ref="K1:O7" totalsRowCount="1" headerRowDxfId="3" dataDxfId="1" totalsRowDxfId="2">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4789F096-847D-4A40-9857-09BA184E9691}" name="Tabla34" displayName="Tabla34" ref="A1:E7" totalsRowCount="1" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4C9DE33-870A-419A-828E-008FA9CE545B}" name="Li" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4752685B-D53C-4985-9382-4E35D7C05EE1}" name="Ls" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{02BBF4B9-B901-4325-859D-0EC2E76992FE}" name="x" dataDxfId="8" totalsRowDxfId="7">
-      <calculatedColumnFormula>AVERAGE(Tabla3[[#This Row],[Li]:[Ls]])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{5804730D-1F5F-4310-9A04-41C238F6C21E}" name="Li" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{10137DBF-1776-4F47-9D21-98B57971BD20}" name="Ls" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8EEA5D41-ED29-4E9D-B7F0-2EA1F01325E8}" name="x" dataDxfId="4" totalsRowDxfId="5">
+      <calculatedColumnFormula>AVERAGE(Tabla34[[#This Row],[Li]:[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7566CD90-C052-4064-B080-F756F5E97ED6}" name="f" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{5BD5236F-7116-46CF-88C2-74B673262788}" name="xf" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0">
-      <calculatedColumnFormula>Tabla3[[#This Row],[x]]*Tabla3[[#This Row],[f]]</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{A97BAD12-AA34-4BF3-8967-C9A8930D2780}" name="f" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C5058873-8252-46F0-83E1-59C99964D1E2}" name="xf" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>Tabla34[[#This Row],[x]]*Tabla34[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -2605,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE984A1-AAED-49F0-BF5E-149941915203}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,4 +3351,219 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA6D226-73EB-4D77-9B6C-411767EFF4A4}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17">
+        <f>AVERAGE(Tabla34[[#This Row],[Li]:[Ls]])</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17">
+        <f>Tabla34[[#This Row],[x]]*Tabla34[[#This Row],[f]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17">
+        <f>AVERAGE(Tabla34[[#This Row],[Li]:[Ls]])</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17">
+        <f>Tabla34[[#This Row],[x]]*Tabla34[[#This Row],[f]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>8</v>
+      </c>
+      <c r="B4" s="17">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17">
+        <f>AVERAGE(Tabla34[[#This Row],[Li]:[Ls]])</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="17">
+        <v>6</v>
+      </c>
+      <c r="E4" s="17">
+        <f>Tabla34[[#This Row],[x]]*Tabla34[[#This Row],[f]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>12</v>
+      </c>
+      <c r="B5" s="17">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17">
+        <f>AVERAGE(Tabla34[[#This Row],[Li]:[Ls]])</f>
+        <v>14</v>
+      </c>
+      <c r="D5" s="17">
+        <v>4</v>
+      </c>
+      <c r="E5" s="17">
+        <f>Tabla34[[#This Row],[x]]*Tabla34[[#This Row],[f]]</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>16</v>
+      </c>
+      <c r="B6" s="17">
+        <v>20</v>
+      </c>
+      <c r="C6" s="17">
+        <f>AVERAGE(Tabla34[[#This Row],[Li]:[Ls]])</f>
+        <v>18</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17">
+        <f>Tabla34[[#This Row],[x]]*Tabla34[[#This Row],[f]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
+        <f>SUBTOTAL(109,Tabla34[f])</f>
+        <v>21</v>
+      </c>
+      <c r="E7" s="17">
+        <f>SUBTOTAL(109,Tabla34[xf])</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="21">
+        <f>Tabla34[[#Totals],[xf]]/Tabla34[[#Totals],[f]]</f>
+        <v>9.8095238095238102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>